--- a/target/classes/com/dvm/qa/selenium/testdata/TestData.xlsx
+++ b/target/classes/com/dvm/qa/selenium/testdata/TestData.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
